--- a/Datos/Database by set/Set with text box/Xlsx sets/Torment Promos (PTOR).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Torment Promos (PTOR).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,147 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Воин Лакватуса</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{4}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Существо — Кошмарный ужас</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Когда Воин Лакватуса входит в игру, целевой игрок теряет 6 жизней.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Когда Воин Лакватуса покидает игру, целевой игрок получает 6 жизней.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{B}: Восстановить Воина Лакватуса.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Воин Лакватуса</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{4}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Существо — Кошмарный ужас</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Когда Воин Лакватуса входит в игру, целевой игрок теряет 6 жизней.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Когда Воин Лакватуса покидает игру, целевой игрок получает 6 жизней.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>{B}: Восстановить Воина Лакватуса.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>6/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Воин Лакватуса</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{4}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Существо — Кошмарный ужас</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Когда Воин Лакватуса входит в игру, целевой игрок теряет 6 жизней.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Когда Воин Лакватуса покидает игру, целевой игрок получает 6 жизней.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{B}: Восстановить Воина Лакватуса.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>6/3</t>
+          <t>('Воин Лакватуса', ['{4}{B}{B}', 'Существо — Кошмарный ужас', 'Когда Воин Лакватуса входит в игру, целевой игрок теряет 6 жизней.', 'Когда Воин Лакватуса покидает игру, целевой игрок получает 6 жизней.', '{B}: Восстановить Воина Лакватуса.', '6/3'])</t>
         </is>
       </c>
     </row>
